--- a/Working directory/Project Planning/Function Points.xlsx
+++ b/Working directory/Project Planning/Function Points.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Internal Logic File</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Taxi Reply Request</t>
+  </si>
+  <si>
+    <t>Notification of Request to Taxi</t>
+  </si>
+  <si>
+    <t>Edit Personal Information</t>
   </si>
 </sst>
 </file>
@@ -439,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -468,7 +480,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f>SUM(C4:C7)</f>
         <v>31</v>
       </c>
@@ -541,9 +553,9 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
-        <f>SUM(C13:C18)</f>
-        <v>19</v>
+      <c r="C12" s="1">
+        <f>SUM(C13:C21)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,7 +571,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -570,29 +582,29 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -603,7 +615,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -612,21 +624,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
       </c>
       <c r="C20">
-        <f>SUM(C21)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -634,42 +659,73 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1">
         <f>SUM(C24:C25)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1">
+        <f>SUM(C28:C29)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C25">
+      <c r="C29">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="1">
-        <f>C3+C9+C12+C20+C23</f>
-        <v>71</v>
+      <c r="C31" s="1">
+        <f>C3+C9+C12+C23+C27</f>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
